--- a/src/main/resources/edu/arizona/pdf/attachments-template.xlsx
+++ b/src/main/resources/edu/arizona/pdf/attachments-template.xlsx
@@ -5,10 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="data" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="NOTES" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,42 +22,204 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="64">
+  <si>
+    <t xml:space="preserve">INSTRUCTIONS FOR SHARING DOCUMENT MIGRATION DATA.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For Document migration Huron will require the following:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Folder (IRBConversionFiles) containing all the files, preferably split into different folders (1 folder per study). Each study folder to contain all documents to be migrated for the study.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Document mapping data that provides a combination of Study ID and a relative path for each document to be migrated for the study. 
+For instance - STUDY1234 - ./IRBConversionFiles/STUDY1234/Protocol.docx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Huron uses Staging table to host document mapping data mentioned above. The Staging table describes where the file is (relative to some folder) and where it must be placed in Huron IRB.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Staging table definition and additional information can be found in Sheet1. It can be written to by UA or UA may choose to send data over in Excel and Huron will populate it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If UA would like to directly write document mapping data to staging table, the definition in Sheet1 can be used to construct the query. Please reach out to Raj or Bhavesh.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alternatively UA can provide the document mapping data in this excel sheet, in which case Sheet2 should be populated based on instructions in Sheet 2&gt;row 1.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Table</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Column</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type/Size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Required?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To be populated by UA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primary Key</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Default</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Examples</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FileImport</t>
+  </si>
   <si>
     <t xml:space="preserve">id</t>
   </si>
   <si>
+    <t xml:space="preserve">INT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Optional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unique ID for the record. Huron can autofill this if needed. Huron can make this an IDENTITY column and you do not need to provide a value.
+It is only helpful to provide a value if you needed to refer back to this ID from the source of the insert.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
     <t xml:space="preserve">destType</t>
   </si>
   <si>
+    <t xml:space="preserve">SYSNAME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type name containing the "destAttrPath".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_IRBSubmission</t>
+  </si>
+  <si>
     <t xml:space="preserve">destId</t>
   </si>
   <si>
+    <t xml:space="preserve">NVARCHAR(255)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID of the entity of the "destType" to place the document.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STUDY00000001</t>
+  </si>
+  <si>
     <t xml:space="preserve">destAttrPath</t>
   </si>
   <si>
+    <t xml:space="preserve">NVARCHAR(2000)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fully qualified attribute path from "destType" to store the document.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">documents
+customAttributes.customExtension.customAttributes.myDocuments</t>
+  </si>
+  <si>
     <t xml:space="preserve">destAttrIsSet</t>
   </si>
   <si>
+    <t xml:space="preserve">BIT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">True when the destination attribute "destAttrPath" is an entity set.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 - not a set
+1 - is a set</t>
+  </si>
+  <si>
     <t xml:space="preserve">friendlyFileName</t>
   </si>
   <si>
+    <t xml:space="preserve">The name that will display in the web interface and when downloading the file.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STUDY1234_Protocol</t>
+  </si>
+  <si>
     <t xml:space="preserve">relativeFilePath</t>
   </si>
   <si>
+    <t xml:space="preserve">NVARCHAR(4000)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The path to the file, relative to a folder. The folder constains all files in any number of subdirectories. The folder is copied to the destination application server and used to extract the files during the import process.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">./IRBConversionFiles/STUDY1234_Protocol.docx OR
+./GrantsConversionFiles/STUDY1234/STUDY1234_Protocol.docx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">isProcessed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Control field. Do no provide value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n/a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NTEXT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FALSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">documentId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If you have a Document ID from source system you would like to use, please add that; OR you can leave it blank and Huron will populate it</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Copy and paste _IRBSubmission on each row</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Huron will populate this column</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name of the file</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relative path to root folder, please see example in Sheet 1 or NOTES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is a alpha numeric field to record ID of the IRB amendment/ continuing review the document is associated with. 
+Character limit: 255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do not provide value</t>
+  </si>
+  <si>
     <t xml:space="preserve">category</t>
   </si>
   <si>
     <t xml:space="preserve">versionID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">isProcessed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">error</t>
-  </si>
-  <si>
-    <t xml:space="preserve">documentId</t>
   </si>
 </sst>
 </file>
@@ -66,7 +230,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -90,6 +254,36 @@
       <family val="0"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FFC55A11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC55A11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <i val="true"/>
       <sz val="11"/>
       <color rgb="FF70AD47"/>
@@ -97,20 +291,19 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -147,16 +340,48 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="3" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="3" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -164,11 +389,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -228,7 +453,7 @@
       <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FFC55A11"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF70AD47"/>
       <rgbColor rgb="FF003366"/>
@@ -249,141 +474,536 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="B1:B9"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="14.45" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="158.15"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="28.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:I11"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G5" activeCellId="0" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.45" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="4" width="10.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="16.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="4" width="16.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="4" width="10.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="4" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="4" width="7.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="5" width="63.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="4" width="63.29"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="10" style="4" width="9.14"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="43.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="57.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="28.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="28.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="28.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="43.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="14.45" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="14.45" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="42.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="27.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="73.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="20.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="23.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="69.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="23.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="10.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="10.85"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
+    <row r="1" s="10" customFormat="true" ht="225" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
+      <c r="A11" s="12"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="12"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
